--- a/biology/Zoologie/Cyanonemertes/Cyanonemertes.xlsx
+++ b/biology/Zoologie/Cyanonemertes/Cyanonemertes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanonemertes elegans
-Cyanonemertes est un genre de vers aquatiques de l'ordre des Monostilifera. Le genre, monotypique, n'est assigné à aucune famille et n'est représenté que par l'espèce Cyanonemertes elegans Iwata, 2007, trouvée dans l’État de Washington, aux États-Unis[1].
+Cyanonemertes est un genre de vers aquatiques de l'ordre des Monostilifera. Le genre, monotypique, n'est assigné à aucune famille et n'est représenté que par l'espèce Cyanonemertes elegans Iwata, 2007, trouvée dans l’État de Washington, aux États-Unis.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Fumio Iwata, « Cyanonemertes elegans, new genus, new species, a marine hoplonemertean from Washington state, U.S.A », Proceedings of the Biological Society of Washington, Washington, Biological Society of Washington (d), vol. 120, no 2,‎ août 2007, p. 197-213 (ISSN 0006-324X et 1943-6327, OCLC 1536434, DOI 10.2988/0006-324X(2007)120[197:CENGNS]2.0.CO;2)</t>
         </is>
